--- a/public/data/res/区域编码.xlsx
+++ b/public/data/res/区域编码.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Che\Documents\Projects\Nodejs\Yb.CloudDataApi.Vue\public\data\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1D5112-94FF-47FC-8BD1-C5E773D9553A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174093BD-6A05-4C7F-9EBD-13484977509D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="205">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,580 @@
   </si>
   <si>
     <t>510411101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平地镇社区</t>
+  </si>
+  <si>
+    <t>510411101001</t>
+  </si>
+  <si>
+    <t>平地镇迤沙拉社区</t>
+  </si>
+  <si>
+    <t>510411101200</t>
+  </si>
+  <si>
+    <t>510411101201</t>
+  </si>
+  <si>
+    <t>510411101202</t>
+  </si>
+  <si>
+    <t>510411101203</t>
+  </si>
+  <si>
+    <t>510411101204</t>
+  </si>
+  <si>
+    <t>平地镇平地社区</t>
+  </si>
+  <si>
+    <t>平地镇波西社区</t>
+  </si>
+  <si>
+    <t>平地镇白拉古社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平地镇辣子哨社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大田镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411102001</t>
+  </si>
+  <si>
+    <t>510411102200</t>
+  </si>
+  <si>
+    <t>510411102201</t>
+  </si>
+  <si>
+    <t>510411102202</t>
+  </si>
+  <si>
+    <t>510411102203</t>
+  </si>
+  <si>
+    <t>510411102204</t>
+  </si>
+  <si>
+    <t>510411102205</t>
+  </si>
+  <si>
+    <t>大田镇乌喇么社区</t>
+  </si>
+  <si>
+    <t>大田镇片那立社区</t>
+  </si>
+  <si>
+    <t>大田镇小啊喇社区</t>
+  </si>
+  <si>
+    <t>大田镇大田社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大田镇银鹿社区"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大田镇斑庄社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大田镇社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411102</t>
+  </si>
+  <si>
+    <t>福田镇务子田社区</t>
+  </si>
+  <si>
+    <t>福田镇金台子社区</t>
+  </si>
+  <si>
+    <t>福田镇金龟社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福田镇塘坝社区"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411103</t>
+  </si>
+  <si>
+    <t>510411103200</t>
+  </si>
+  <si>
+    <t>510411103201</t>
+  </si>
+  <si>
+    <t>510411103202</t>
+  </si>
+  <si>
+    <t>510411103203</t>
+  </si>
+  <si>
+    <t>同德镇共和社区</t>
+  </si>
+  <si>
+    <t>同德镇新生社区</t>
+  </si>
+  <si>
+    <t>同德镇双河社区</t>
+  </si>
+  <si>
+    <t>同德镇新民社区</t>
+  </si>
+  <si>
+    <t>同德镇龙塘社区</t>
+  </si>
+  <si>
+    <t>同德镇马拉所社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同德镇道中桥社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411104200</t>
+  </si>
+  <si>
+    <t>510411104201</t>
+  </si>
+  <si>
+    <t>510411104202</t>
+  </si>
+  <si>
+    <t>510411104203</t>
+  </si>
+  <si>
+    <t>510411104204</t>
+  </si>
+  <si>
+    <t>510411104205</t>
+  </si>
+  <si>
+    <t>510411104206</t>
+  </si>
+  <si>
+    <t>510411104</t>
+  </si>
+  <si>
+    <t>金江镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金江镇马海达社区</t>
+  </si>
+  <si>
+    <t>金江镇立柯社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金江镇鱼塘社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金江镇金江社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金江镇社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金江镇保安营社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金江镇斑鸠湾社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411105200</t>
+  </si>
+  <si>
+    <t>510411105201</t>
+  </si>
+  <si>
+    <t>510411105202</t>
+  </si>
+  <si>
+    <t>510411105203</t>
+  </si>
+  <si>
+    <t>510411105204</t>
+  </si>
+  <si>
+    <t>510411105206</t>
+  </si>
+  <si>
+    <t>布德镇巴关河社区</t>
+  </si>
+  <si>
+    <t>布德镇老村子社区</t>
+  </si>
+  <si>
+    <t>布德镇布德社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布德镇中心社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布德镇新桥社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布德镇猛良坪社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411106201</t>
+  </si>
+  <si>
+    <t>510411106202</t>
+  </si>
+  <si>
+    <t>510411106203</t>
+  </si>
+  <si>
+    <t>510411106204</t>
+  </si>
+  <si>
+    <t>510411106205</t>
+  </si>
+  <si>
+    <t>510411105003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411106200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前进镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前进镇普达社区</t>
+  </si>
+  <si>
+    <t>前进镇高峰社区</t>
+  </si>
+  <si>
+    <t>前进镇田堡社区</t>
+  </si>
+  <si>
+    <t>前进镇永胜社区</t>
+  </si>
+  <si>
+    <t>前进镇胜利社区</t>
+  </si>
+  <si>
+    <t>前进镇宝鼎社区</t>
+  </si>
+  <si>
+    <t>前进镇社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前进镇田房箐社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411107200</t>
+  </si>
+  <si>
+    <t>510411107202</t>
+  </si>
+  <si>
+    <t>510411107203</t>
+  </si>
+  <si>
+    <t>510411107204</t>
+  </si>
+  <si>
+    <t>510411107205</t>
+  </si>
+  <si>
+    <t>510411107206</t>
+  </si>
+  <si>
+    <t>510411107207</t>
+  </si>
+  <si>
+    <t>510411107001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大龙潭彝族乡干坝子社区</t>
+  </si>
+  <si>
+    <t>大龙潭彝族乡大龙潭社区</t>
+  </si>
+  <si>
+    <t>大龙潭彝族乡混撒拉社区</t>
+  </si>
+  <si>
+    <t>大龙潭彝族乡裕民社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大龙潭彝族乡新街社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大龙潭彝族乡迤资社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大龙潭彝族乡拉鲊社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411200200</t>
+  </si>
+  <si>
+    <t>510411200201</t>
+  </si>
+  <si>
+    <t>510411200202</t>
+  </si>
+  <si>
+    <t>510411200203</t>
+  </si>
+  <si>
+    <t>510411200204</t>
+  </si>
+  <si>
+    <t>510411200205</t>
+  </si>
+  <si>
+    <t>510411200207</t>
+  </si>
+  <si>
+    <t>510411200</t>
+  </si>
+  <si>
+    <t>啊喇彝族乡永富社区</t>
+  </si>
+  <si>
+    <t>啊喇彝族乡大竹社区</t>
+  </si>
+  <si>
+    <t>啊喇彝族乡旺牛社区</t>
+  </si>
+  <si>
+    <t>啊喇彝族乡官房社区</t>
+  </si>
+  <si>
+    <t>啊喇彝族乡啊喇村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊喇彝族乡起查喇社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411201200</t>
+  </si>
+  <si>
+    <t>510411201201</t>
+  </si>
+  <si>
+    <t>510411201202</t>
+  </si>
+  <si>
+    <t>510411201203</t>
+  </si>
+  <si>
+    <t>510411201204</t>
+  </si>
+  <si>
+    <t>510411201205</t>
+  </si>
+  <si>
+    <t>510411201</t>
+  </si>
+  <si>
+    <t>太平乡大村社区</t>
+  </si>
+  <si>
+    <t>太平乡花山社区</t>
+  </si>
+  <si>
+    <t>太平乡河边社区</t>
+  </si>
+  <si>
+    <t>太平乡大坝社区</t>
+  </si>
+  <si>
+    <t>太平乡龙潭社区</t>
+  </si>
+  <si>
+    <t>太平乡半海社区</t>
+  </si>
+  <si>
+    <t>太平乡江边社区</t>
+  </si>
+  <si>
+    <t>太平乡革新社区</t>
+  </si>
+  <si>
+    <t>太平乡红岩社区</t>
+  </si>
+  <si>
+    <t>太平乡先锋社区</t>
+  </si>
+  <si>
+    <t>510411203200</t>
+  </si>
+  <si>
+    <t>510411203201</t>
+  </si>
+  <si>
+    <t>510411203202</t>
+  </si>
+  <si>
+    <t>510411203203</t>
+  </si>
+  <si>
+    <t>510411203204</t>
+  </si>
+  <si>
+    <t>510411203205</t>
+  </si>
+  <si>
+    <t>510411203206</t>
+  </si>
+  <si>
+    <t>510411203207</t>
+  </si>
+  <si>
+    <t>510411203208</t>
+  </si>
+  <si>
+    <t>510411203209</t>
+  </si>
+  <si>
+    <t>510411203</t>
+  </si>
+  <si>
+    <t>务本乡乌拉社区</t>
+  </si>
+  <si>
+    <t>务本乡葩地社区</t>
+  </si>
+  <si>
+    <t>务本乡垭口社区</t>
+  </si>
+  <si>
+    <t>务本乡大火山社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411204200</t>
+  </si>
+  <si>
+    <t>510411204201</t>
+  </si>
+  <si>
+    <t>510411204202</t>
+  </si>
+  <si>
+    <t>510411204203</t>
+  </si>
+  <si>
+    <t>中坝乡中坝社区</t>
+  </si>
+  <si>
+    <t>中坝乡大纸房社</t>
+  </si>
+  <si>
+    <t>中坝乡学房社区</t>
+  </si>
+  <si>
+    <t>中坝乡团山社区</t>
+  </si>
+  <si>
+    <t>510411205203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411205202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411205201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411205200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福田镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同德镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布德镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大龙潭彝族乡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊喇彝族乡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平乡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>务本乡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中坝乡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +727,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,16 +742,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -185,13 +774,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -252,7 +934,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -287,7 +969,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -472,146 +1154,1095 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="22.59765625" customWidth="1"/>
-    <col min="3" max="3" width="28.19921875" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
         <v>510411</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B3" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C4" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B6" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C7" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C8" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C9" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C10" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C11" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C12" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C13" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C14" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B15" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A27" s="6"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A28" s="6"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A29" s="6"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A32" s="6"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A33" s="6"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A34" s="6"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A36" s="6"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A37" s="6"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A38" s="6"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A39" s="6"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A40" s="6"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A41" s="6"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A42" s="6"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A44" s="6"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A45" s="6"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A46" s="6"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A47" s="6"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A48" s="6"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A49" s="6"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A50" s="6"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A52" s="6"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A53" s="6"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A54" s="6"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A55" s="6"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A56" s="6"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A57" s="6"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A59" s="6"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A60" s="6"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A61" s="6"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A62" s="6"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A63" s="6"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A64" s="6"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A65" s="6"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A66" s="6"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A67" s="6"/>
+      <c r="B67" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A68" s="6"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A69" s="6"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A70" s="6"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A71" s="6"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A72" s="6"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A73" s="6"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A74" s="6"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A75" s="6"/>
+      <c r="B75" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A76" s="6"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A77" s="6"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A78" s="6"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A79" s="6"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A80" s="6"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A81" s="6"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A82" s="6"/>
+      <c r="B82" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A83" s="6"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A84" s="6"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A85" s="6"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A86" s="6"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A87" s="6"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A88" s="6"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A89" s="6"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A90" s="6"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A91" s="6"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A92" s="6"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A93" s="6"/>
+      <c r="B93" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A94" s="6"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A95" s="6"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A96" s="6"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A97" s="6"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A98" s="6"/>
+      <c r="B98" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A99" s="6"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A100" s="6"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A101" s="6"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A102" s="6"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="B75:B81"/>
+    <mergeCell ref="B82:B92"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="A2:A102"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="B58:B66"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/data/res/区域编码.xlsx
+++ b/public/data/res/区域编码.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Che\Documents\Projects\Nodejs\Yb.CloudDataApi.Vue\public\data\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1D5112-94FF-47FC-8BD1-C5E773D9553A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D976549-61F2-4E77-892F-76CF5A05E0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="205">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,77 +75,656 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>仁和镇沙沟社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411100200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁和镇莲花社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411100201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411100202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁和镇田坝村</t>
+  </si>
+  <si>
+    <t>仁和镇总发社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411100203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁和镇红旗社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411100204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁和镇立新社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411100205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁和镇社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411100206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁和镇板桥社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411100207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平地镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平地镇社区</t>
+  </si>
+  <si>
+    <t>510411101001</t>
+  </si>
+  <si>
+    <t>平地镇迤沙拉社区</t>
+  </si>
+  <si>
+    <t>510411101200</t>
+  </si>
+  <si>
+    <t>510411101201</t>
+  </si>
+  <si>
+    <t>510411101202</t>
+  </si>
+  <si>
+    <t>510411101203</t>
+  </si>
+  <si>
+    <t>510411101204</t>
+  </si>
+  <si>
+    <t>平地镇平地社区</t>
+  </si>
+  <si>
+    <t>平地镇波西社区</t>
+  </si>
+  <si>
+    <t>平地镇白拉古社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平地镇辣子哨社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大田镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411102001</t>
+  </si>
+  <si>
+    <t>510411102200</t>
+  </si>
+  <si>
+    <t>510411102201</t>
+  </si>
+  <si>
+    <t>510411102202</t>
+  </si>
+  <si>
+    <t>510411102203</t>
+  </si>
+  <si>
+    <t>510411102204</t>
+  </si>
+  <si>
+    <t>510411102205</t>
+  </si>
+  <si>
+    <t>大田镇乌喇么社区</t>
+  </si>
+  <si>
+    <t>大田镇片那立社区</t>
+  </si>
+  <si>
+    <t>大田镇小啊喇社区</t>
+  </si>
+  <si>
+    <t>大田镇大田社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大田镇银鹿社区"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大田镇斑庄社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大田镇社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411102</t>
+  </si>
+  <si>
+    <t>福田镇务子田社区</t>
+  </si>
+  <si>
+    <t>福田镇金台子社区</t>
+  </si>
+  <si>
+    <t>福田镇金龟社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福田镇塘坝社区"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411103</t>
+  </si>
+  <si>
+    <t>510411103200</t>
+  </si>
+  <si>
+    <t>510411103201</t>
+  </si>
+  <si>
+    <t>510411103202</t>
+  </si>
+  <si>
+    <t>510411103203</t>
+  </si>
+  <si>
+    <t>同德镇共和社区</t>
+  </si>
+  <si>
+    <t>同德镇新生社区</t>
+  </si>
+  <si>
+    <t>同德镇双河社区</t>
+  </si>
+  <si>
+    <t>同德镇新民社区</t>
+  </si>
+  <si>
+    <t>同德镇龙塘社区</t>
+  </si>
+  <si>
+    <t>同德镇马拉所社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同德镇道中桥社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411104200</t>
+  </si>
+  <si>
+    <t>510411104201</t>
+  </si>
+  <si>
+    <t>510411104202</t>
+  </si>
+  <si>
+    <t>510411104203</t>
+  </si>
+  <si>
+    <t>510411104204</t>
+  </si>
+  <si>
+    <t>510411104205</t>
+  </si>
+  <si>
+    <t>510411104206</t>
+  </si>
+  <si>
+    <t>金江镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金江镇马海达社区</t>
+  </si>
+  <si>
+    <t>金江镇立柯社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金江镇鱼塘社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金江镇金江社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金江镇社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金江镇保安营社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金江镇斑鸠湾社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411105200</t>
+  </si>
+  <si>
+    <t>510411105201</t>
+  </si>
+  <si>
+    <t>510411105202</t>
+  </si>
+  <si>
+    <t>510411105203</t>
+  </si>
+  <si>
+    <t>510411105204</t>
+  </si>
+  <si>
+    <t>510411105206</t>
+  </si>
+  <si>
+    <t>布德镇巴关河社区</t>
+  </si>
+  <si>
+    <t>布德镇老村子社区</t>
+  </si>
+  <si>
+    <t>布德镇布德社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布德镇中心社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布德镇新桥社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布德镇猛良坪社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411106201</t>
+  </si>
+  <si>
+    <t>510411106202</t>
+  </si>
+  <si>
+    <t>510411106203</t>
+  </si>
+  <si>
+    <t>510411106204</t>
+  </si>
+  <si>
+    <t>510411106205</t>
+  </si>
+  <si>
+    <t>510411105003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411106200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前进镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前进镇普达社区</t>
+  </si>
+  <si>
+    <t>前进镇高峰社区</t>
+  </si>
+  <si>
+    <t>前进镇田堡社区</t>
+  </si>
+  <si>
+    <t>前进镇永胜社区</t>
+  </si>
+  <si>
+    <t>前进镇胜利社区</t>
+  </si>
+  <si>
+    <t>前进镇宝鼎社区</t>
+  </si>
+  <si>
+    <t>前进镇社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前进镇田房箐社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411107200</t>
+  </si>
+  <si>
+    <t>510411107202</t>
+  </si>
+  <si>
+    <t>510411107203</t>
+  </si>
+  <si>
+    <t>510411107204</t>
+  </si>
+  <si>
+    <t>510411107205</t>
+  </si>
+  <si>
+    <t>510411107206</t>
+  </si>
+  <si>
+    <t>510411107207</t>
+  </si>
+  <si>
+    <t>510411107001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大龙潭彝族乡干坝子社区</t>
+  </si>
+  <si>
+    <t>大龙潭彝族乡大龙潭社区</t>
+  </si>
+  <si>
+    <t>大龙潭彝族乡混撒拉社区</t>
+  </si>
+  <si>
+    <t>大龙潭彝族乡裕民社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大龙潭彝族乡新街社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大龙潭彝族乡迤资社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大龙潭彝族乡拉鲊社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411200200</t>
+  </si>
+  <si>
+    <t>510411200201</t>
+  </si>
+  <si>
+    <t>510411200202</t>
+  </si>
+  <si>
+    <t>510411200203</t>
+  </si>
+  <si>
+    <t>510411200204</t>
+  </si>
+  <si>
+    <t>510411200205</t>
+  </si>
+  <si>
+    <t>510411200207</t>
+  </si>
+  <si>
+    <t>啊喇彝族乡永富社区</t>
+  </si>
+  <si>
+    <t>啊喇彝族乡大竹社区</t>
+  </si>
+  <si>
+    <t>啊喇彝族乡旺牛社区</t>
+  </si>
+  <si>
+    <t>啊喇彝族乡官房社区</t>
+  </si>
+  <si>
+    <t>啊喇彝族乡啊喇村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊喇彝族乡起查喇社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411201200</t>
+  </si>
+  <si>
+    <t>510411201201</t>
+  </si>
+  <si>
+    <t>510411201202</t>
+  </si>
+  <si>
+    <t>510411201203</t>
+  </si>
+  <si>
+    <t>510411201204</t>
+  </si>
+  <si>
+    <t>510411201205</t>
+  </si>
+  <si>
+    <t>太平乡大村社区</t>
+  </si>
+  <si>
+    <t>太平乡花山社区</t>
+  </si>
+  <si>
+    <t>太平乡河边社区</t>
+  </si>
+  <si>
+    <t>太平乡大坝社区</t>
+  </si>
+  <si>
+    <t>太平乡龙潭社区</t>
+  </si>
+  <si>
+    <t>太平乡半海社区</t>
+  </si>
+  <si>
+    <t>太平乡江边社区</t>
+  </si>
+  <si>
+    <t>太平乡革新社区</t>
+  </si>
+  <si>
+    <t>太平乡红岩社区</t>
+  </si>
+  <si>
+    <t>太平乡先锋社区</t>
+  </si>
+  <si>
+    <t>510411203200</t>
+  </si>
+  <si>
+    <t>510411203201</t>
+  </si>
+  <si>
+    <t>510411203202</t>
+  </si>
+  <si>
+    <t>510411203203</t>
+  </si>
+  <si>
+    <t>510411203204</t>
+  </si>
+  <si>
+    <t>510411203205</t>
+  </si>
+  <si>
+    <t>510411203206</t>
+  </si>
+  <si>
+    <t>510411203207</t>
+  </si>
+  <si>
+    <t>510411203208</t>
+  </si>
+  <si>
+    <t>510411203209</t>
+  </si>
+  <si>
+    <t>务本乡乌拉社区</t>
+  </si>
+  <si>
+    <t>务本乡葩地社区</t>
+  </si>
+  <si>
+    <t>务本乡垭口社区</t>
+  </si>
+  <si>
+    <t>务本乡大火山社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411204200</t>
+  </si>
+  <si>
+    <t>510411204201</t>
+  </si>
+  <si>
+    <t>510411204202</t>
+  </si>
+  <si>
+    <t>510411204203</t>
+  </si>
+  <si>
+    <t>中坝乡中坝社区</t>
+  </si>
+  <si>
+    <t>中坝乡大纸房社</t>
+  </si>
+  <si>
+    <t>中坝乡学房社区</t>
+  </si>
+  <si>
+    <t>中坝乡团山社区</t>
+  </si>
+  <si>
+    <t>510411205203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411205202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411205201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411205200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福田镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同德镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布德镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大龙潭彝族乡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊喇彝族乡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平乡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>务本乡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中坝乡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>510411100</t>
-  </si>
-  <si>
-    <t>仁和镇沙沟社区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411100200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仁和镇莲花社区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411100201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411100202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仁和镇田坝村</t>
-  </si>
-  <si>
-    <t>仁和镇总发社区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411100203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仁和镇红旗社区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411100204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仁和镇立新社区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411100205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仁和镇社区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411100206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仁和镇板桥社区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411100207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平地镇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411203</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +732,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,16 +747,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -185,13 +779,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -252,7 +939,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -287,7 +974,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -472,146 +1159,1095 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="22.59765625" customWidth="1"/>
-    <col min="3" max="3" width="28.19921875" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
         <v>510411</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B3" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C4" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C5" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B6" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A7" s="11"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C7" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A8" s="11"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C8" t="s">
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A9" s="11"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C10" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C11" t="s">
+      <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C12" t="s">
+      <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A13" s="11"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C13" t="s">
+      <c r="D13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C14" t="s">
+      <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B15" t="s">
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A16" s="11"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A17" s="11"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A18" s="11"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A19" s="11"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A21" s="11"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A23" s="11"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A24" s="11"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A25" s="11"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A26" s="11"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A27" s="11"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A28" s="11"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A29" s="11"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A31" s="11"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A32" s="11"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A33" s="11"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A36" s="11"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A37" s="11"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A38" s="11"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A39" s="11"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A40" s="11"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A41" s="11"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A42" s="11"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A44" s="11"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A45" s="11"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A46" s="11"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A47" s="11"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A48" s="11"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A49" s="11"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A50" s="11"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A51" s="11"/>
+      <c r="B51" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A52" s="11"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A53" s="11"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A54" s="11"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A55" s="11"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A56" s="11"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A57" s="11"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A58" s="11"/>
+      <c r="B58" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A59" s="11"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A60" s="11"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A61" s="11"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A62" s="11"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A63" s="11"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A64" s="11"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A65" s="11"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A66" s="11"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A67" s="11"/>
+      <c r="B67" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A68" s="11"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A69" s="11"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A70" s="11"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A71" s="11"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A72" s="11"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A73" s="11"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A74" s="11"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A75" s="11"/>
+      <c r="B75" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A76" s="11"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A77" s="11"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A78" s="11"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A79" s="11"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A80" s="11"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A81" s="11"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A82" s="11"/>
+      <c r="B82" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A83" s="11"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A84" s="11"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A85" s="11"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A86" s="11"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A87" s="11"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A88" s="11"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A89" s="11"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A90" s="11"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A91" s="11"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A92" s="11"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A93" s="11"/>
+      <c r="B93" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A94" s="11"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A95" s="11"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A96" s="11"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A97" s="11"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A98" s="11"/>
+      <c r="B98" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A99" s="11"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A100" s="11"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A101" s="11"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A102" s="11"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>186</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A2:A102"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="B58:B66"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="B75:B81"/>
+    <mergeCell ref="B82:B92"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="B98:B102"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/data/res/区域编码.xlsx
+++ b/public/data/res/区域编码.xlsx
@@ -8,13 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Che\Documents\Projects\Nodejs\Yb.CloudDataApi.Vue\public\data\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D976549-61F2-4E77-892F-76CF5A05E0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B00F8C-2BB1-4E7C-9826-24031D38CE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$A$2:$A$4</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet2!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet2!$A$2</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet2!$A$2</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">Sheet2!$B$2:$D$2</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">Sheet2!$B$2:$D$2</definedName>
+    <definedName name="_xlchart.v2.12" hidden="1">Sheet2!$A$2</definedName>
+    <definedName name="_xlchart.v2.13" hidden="1">Sheet2!$B$1:$D$1</definedName>
+    <definedName name="_xlchart.v2.14" hidden="1">Sheet2!$B$2:$D$2</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet2!$B$2:$D$2</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet2!$B$1:$D$1</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet2!$B$1:$D$1</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Sheet2!$B$2:$D$2</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Sheet2!$A$2</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Sheet2!$A$2</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">Sheet2!$B$1:$D$1</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">Sheet2!$B$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="210">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -725,6 +746,26 @@
   </si>
   <si>
     <t>510411203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,6 +935,676 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v2.3</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v2.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="funnel" uniqueId="{BAD7C77A-8C79-430A-BF5D-5148F8AB1E7A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v2.1</cx:f>
+              <cx:v>占比</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="1">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="430">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="图表 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8260F3A4-18EC-6E00-AC07-F54EFD8769BA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3444240" y="1325880"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1161,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2251,4 +2962,65 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEFD937-796F-40CF-BCA7-8C1BB952B519}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7B2AF9-AF89-49C6-B76E-B957140FFC62}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0.7</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>